--- a/raw/cognition/xlsx/V2 vs V4 - SPSS Template.xlsx
+++ b/raw/cognition/xlsx/V2 vs V4 - SPSS Template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="176">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -358,7 +358,7 @@
     <t xml:space="preserve">APC115-008</t>
   </si>
   <si>
-    <t xml:space="preserve">F</t>
+    <t xml:space="preserve">DECAF</t>
   </si>
   <si>
     <t xml:space="preserve">APC115-011</t>
@@ -412,7 +412,7 @@
     <t xml:space="preserve">APC115-003</t>
   </si>
   <si>
-    <t xml:space="preserve">S</t>
+    <t xml:space="preserve">CAF</t>
   </si>
   <si>
     <t xml:space="preserve">APC115-017</t>
@@ -532,7 +532,13 @@
     <t xml:space="preserve">Recall_Score</t>
   </si>
   <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
     <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
   </si>
   <si>
     <t xml:space="preserve">D</t>
@@ -686,7 +692,7 @@
   <dimension ref="A1:DF63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CR33" activeCellId="0" sqref="CR33"/>
+      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1401,7 +1407,7 @@
         <v>363.8788</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>112</v>
       </c>
@@ -1722,7 +1728,7 @@
         <v>271.1184</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>113</v>
       </c>
@@ -2050,7 +2056,7 @@
         <v>363.6147</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>115</v>
       </c>
@@ -2355,7 +2361,7 @@
         <v>261.188</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>116</v>
       </c>
@@ -2677,7 +2683,7 @@
         <v>224.7508</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>117</v>
       </c>
@@ -3000,7 +3006,7 @@
         <v>150.6081</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>118</v>
       </c>
@@ -3318,7 +3324,7 @@
         <v>105.4011</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>119</v>
       </c>
@@ -3641,7 +3647,7 @@
         <v>619.7448</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>120</v>
       </c>
@@ -3968,7 +3974,7 @@
         <v>445.7007</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>121</v>
       </c>
@@ -4298,7 +4304,7 @@
         <v>172.3995</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>122</v>
       </c>
@@ -4626,7 +4632,7 @@
         <v>189.1477</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>123</v>
       </c>
@@ -4953,7 +4959,7 @@
         <v>254.5087</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>124</v>
       </c>
@@ -5275,7 +5281,7 @@
         <v>199.8187</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>125</v>
       </c>
@@ -5598,7 +5604,7 @@
         <v>17.9728</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
@@ -5926,7 +5932,7 @@
         <v>336.6586</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>127</v>
       </c>
@@ -6586,7 +6592,7 @@
         <v>282.4009</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>130</v>
       </c>
@@ -6913,7 +6919,7 @@
         <v>150.2941</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>132</v>
       </c>
@@ -7241,7 +7247,7 @@
         <v>186.4963</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>133</v>
       </c>
@@ -7571,7 +7577,7 @@
         <v>207.7373</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>134</v>
       </c>
@@ -7900,7 +7906,7 @@
         <v>186.3659</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>135</v>
       </c>
@@ -8230,7 +8236,7 @@
         <v>176.9643</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>136</v>
       </c>
@@ -8562,7 +8568,7 @@
         <v>360.9982</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>137</v>
       </c>
@@ -8894,7 +8900,7 @@
         <v>428.4476</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>138</v>
       </c>
@@ -9223,7 +9229,7 @@
         <v>366.7895</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>139</v>
       </c>
@@ -9551,7 +9557,7 @@
         <v>180.9092</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>140</v>
       </c>
@@ -9875,7 +9881,7 @@
         <v>504.3726</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>141</v>
       </c>
@@ -10207,7 +10213,7 @@
         <v>240.3593</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>142</v>
       </c>
@@ -10533,7 +10539,7 @@
         <v>24.9708</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>143</v>
       </c>
@@ -10861,7 +10867,7 @@
         <v>34.8842</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>144</v>
       </c>
@@ -11174,7 +11180,7 @@
         <v>57.4828</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>110</v>
       </c>
@@ -11502,7 +11508,7 @@
         <v>239.5206</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>112</v>
       </c>
@@ -11830,7 +11836,7 @@
         <v>260.21</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>113</v>
       </c>
@@ -12160,7 +12166,7 @@
         <v>163.1068</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>115</v>
       </c>
@@ -12472,7 +12478,7 @@
         <v>255.8402</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>116</v>
       </c>
@@ -12800,7 +12806,7 @@
         <v>248.6681</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>117</v>
       </c>
@@ -13127,7 +13133,7 @@
         <v>81.5999</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>118</v>
       </c>
@@ -13440,7 +13446,7 @@
         <v>71.7673</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>119</v>
       </c>
@@ -13770,7 +13776,7 @@
         <v>658.181</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -14094,7 +14100,7 @@
         <v>278.2611</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>121</v>
       </c>
@@ -14421,7 +14427,7 @@
         <v>127.315</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>122</v>
       </c>
@@ -14749,7 +14755,7 @@
         <v>417.7089</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>123</v>
       </c>
@@ -15079,7 +15085,7 @@
         <v>127.7964</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>124</v>
       </c>
@@ -15401,7 +15407,7 @@
         <v>163.0986</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>125</v>
       </c>
@@ -15721,7 +15727,7 @@
       </c>
       <c r="DF46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>126</v>
       </c>
@@ -16053,7 +16059,7 @@
         <v>298.9511</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>127</v>
       </c>
@@ -16385,7 +16391,7 @@
         <v>193.8342</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>128</v>
       </c>
@@ -16717,7 +16723,7 @@
         <v>210.9359</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>130</v>
       </c>
@@ -17047,7 +17053,7 @@
         <v>141.3631</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>132</v>
       </c>
@@ -17379,7 +17385,7 @@
         <v>211.3305</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>133</v>
       </c>
@@ -17705,7 +17711,7 @@
         <v>216.2817</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>134</v>
       </c>
@@ -18003,7 +18009,7 @@
       <c r="DE53" s="1"/>
       <c r="DF53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>135</v>
       </c>
@@ -18331,7 +18337,7 @@
         <v>182.6126</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>136</v>
       </c>
@@ -18648,7 +18654,7 @@
         <v>204.1463</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>137</v>
       </c>
@@ -18980,7 +18986,7 @@
         <v>330.5494</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>138</v>
       </c>
@@ -19310,7 +19316,7 @@
         <v>280.48</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>139</v>
       </c>
@@ -19640,7 +19646,7 @@
         <v>329.8517</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>140</v>
       </c>
@@ -19972,7 +19978,7 @@
         <v>307.5769</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>141</v>
       </c>
@@ -20300,7 +20306,7 @@
         <v>183.5727</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>142</v>
       </c>
@@ -20632,7 +20638,7 @@
         <v>18.4737</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>143</v>
       </c>
@@ -20953,7 +20959,7 @@
         <v>12.4906</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>144</v>
       </c>
@@ -21283,7 +21289,7 @@
   <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B49:B63 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21317,13 +21323,13 @@
         <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>12</v>
@@ -21334,13 +21340,13 @@
         <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>19</v>
@@ -21351,13 +21357,13 @@
         <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>13</v>
@@ -21368,13 +21374,13 @@
         <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>14</v>
@@ -21385,13 +21391,13 @@
         <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>13</v>
@@ -21402,13 +21408,13 @@
         <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>20</v>
@@ -21419,13 +21425,13 @@
         <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>2</v>
@@ -21436,13 +21442,13 @@
         <v>119</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>6</v>
@@ -21453,13 +21459,13 @@
         <v>120</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>13</v>
@@ -21470,13 +21476,13 @@
         <v>121</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>11</v>
@@ -21487,13 +21493,13 @@
         <v>122</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>8</v>
@@ -21504,13 +21510,13 @@
         <v>123</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>12</v>
@@ -21521,13 +21527,13 @@
         <v>124</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>8</v>
@@ -21538,13 +21544,13 @@
         <v>125</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>11</v>
@@ -21555,13 +21561,13 @@
         <v>126</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>8</v>
@@ -21572,13 +21578,13 @@
         <v>127</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>17</v>
@@ -21589,13 +21595,13 @@
         <v>128</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>4</v>
@@ -21606,13 +21612,13 @@
         <v>130</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>9</v>
@@ -21623,13 +21629,13 @@
         <v>132</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>10</v>
@@ -21640,13 +21646,13 @@
         <v>133</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>6</v>
@@ -21657,13 +21663,13 @@
         <v>134</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>5</v>
@@ -21674,13 +21680,13 @@
         <v>135</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>10</v>
@@ -21691,13 +21697,13 @@
         <v>136</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>12</v>
@@ -21708,13 +21714,13 @@
         <v>137</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>8</v>
@@ -21725,13 +21731,13 @@
         <v>138</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>10</v>
@@ -21742,13 +21748,13 @@
         <v>139</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>13</v>
@@ -21759,13 +21765,13 @@
         <v>140</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>10</v>
@@ -21776,13 +21782,13 @@
         <v>141</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>7</v>
@@ -21793,13 +21799,13 @@
         <v>142</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>17</v>
@@ -21810,13 +21816,13 @@
         <v>143</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>6</v>
@@ -21827,13 +21833,13 @@
         <v>144</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>18</v>
@@ -21844,13 +21850,13 @@
         <v>110</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>6</v>
@@ -21861,13 +21867,13 @@
         <v>112</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>14</v>
@@ -21878,13 +21884,13 @@
         <v>113</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>12</v>
@@ -21895,13 +21901,13 @@
         <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>10</v>
@@ -21912,13 +21918,13 @@
         <v>116</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>11</v>
@@ -21929,13 +21935,13 @@
         <v>117</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>16</v>
@@ -21946,13 +21952,13 @@
         <v>118</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>5</v>
@@ -21963,13 +21969,13 @@
         <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>7</v>
@@ -21980,13 +21986,13 @@
         <v>120</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>15</v>
@@ -21997,13 +22003,13 @@
         <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>15</v>
@@ -22014,13 +22020,13 @@
         <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>17</v>
@@ -22031,13 +22037,13 @@
         <v>123</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>13</v>
@@ -22048,13 +22054,13 @@
         <v>124</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>9</v>
@@ -22065,13 +22071,13 @@
         <v>125</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>9</v>
@@ -22082,13 +22088,13 @@
         <v>126</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>7</v>
@@ -22099,13 +22105,13 @@
         <v>127</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>18</v>
@@ -22116,13 +22122,13 @@
         <v>128</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>11</v>
@@ -22133,13 +22139,13 @@
         <v>130</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>10</v>
@@ -22150,13 +22156,13 @@
         <v>132</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>13</v>
@@ -22167,13 +22173,13 @@
         <v>133</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>11</v>
@@ -22184,13 +22190,13 @@
         <v>134</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>8</v>
@@ -22201,13 +22207,13 @@
         <v>135</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E54" s="5" t="n">
         <v>11</v>
@@ -22218,13 +22224,13 @@
         <v>136</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E55" s="5" t="n">
         <v>14</v>
@@ -22235,13 +22241,13 @@
         <v>137</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E56" s="5" t="n">
         <v>7</v>
@@ -22252,13 +22258,13 @@
         <v>138</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E57" s="5" t="n">
         <v>16</v>
@@ -22269,13 +22275,13 @@
         <v>139</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E58" s="5" t="n">
         <v>14</v>
@@ -22286,13 +22292,13 @@
         <v>140</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E59" s="5" t="n">
         <v>10</v>
@@ -22303,13 +22309,13 @@
         <v>141</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E60" s="5" t="n">
         <v>16</v>
@@ -22320,13 +22326,13 @@
         <v>142</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E61" s="5" t="n">
         <v>17</v>
@@ -22337,13 +22343,13 @@
         <v>143</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E62" s="5" t="n">
         <v>10</v>
@@ -22354,13 +22360,13 @@
         <v>144</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E63" s="5" t="n">
         <v>14</v>
@@ -22371,13 +22377,13 @@
         <v>110</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E64" s="5" t="n">
         <v>11</v>
@@ -22388,13 +22394,13 @@
         <v>112</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E65" s="5" t="n">
         <v>16</v>
@@ -22405,13 +22411,13 @@
         <v>113</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E66" s="5" t="n">
         <v>13</v>
@@ -22422,13 +22428,13 @@
         <v>115</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E67" s="5" t="n">
         <v>11</v>
@@ -22439,13 +22445,13 @@
         <v>116</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E68" s="5" t="n">
         <v>14</v>
@@ -22456,13 +22462,13 @@
         <v>117</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E69" s="5" t="n">
         <v>19</v>
@@ -22473,13 +22479,13 @@
         <v>118</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E70" s="5" t="n">
         <v>4</v>
@@ -22490,13 +22496,13 @@
         <v>119</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E71" s="5" t="n">
         <v>6</v>
@@ -22507,13 +22513,13 @@
         <v>120</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E72" s="5" t="n">
         <v>13</v>
@@ -22524,13 +22530,13 @@
         <v>121</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E73" s="5" t="n">
         <v>17</v>
@@ -22541,13 +22547,13 @@
         <v>122</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E74" s="5" t="n">
         <v>8</v>
@@ -22558,13 +22564,13 @@
         <v>123</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E75" s="5" t="n">
         <v>11</v>
@@ -22575,13 +22581,13 @@
         <v>124</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E76" s="5" t="n">
         <v>9</v>
@@ -22592,13 +22598,13 @@
         <v>125</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E77" s="5" t="n">
         <v>12</v>
@@ -22609,13 +22615,13 @@
         <v>126</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E78" s="5" t="n">
         <v>11</v>
@@ -22626,13 +22632,13 @@
         <v>127</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E79" s="5" t="n">
         <v>18</v>
@@ -22643,13 +22649,13 @@
         <v>128</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E80" s="5" t="n">
         <v>4</v>
@@ -22660,13 +22666,13 @@
         <v>130</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E81" s="5" t="n">
         <v>10</v>
@@ -22677,13 +22683,13 @@
         <v>132</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E82" s="5" t="n">
         <v>14</v>
@@ -22694,13 +22700,13 @@
         <v>133</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E83" s="5" t="n">
         <v>7</v>
@@ -22711,13 +22717,13 @@
         <v>134</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E84" s="5" t="n">
         <v>5</v>
@@ -22728,13 +22734,13 @@
         <v>135</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E85" s="5" t="n">
         <v>11</v>
@@ -22745,13 +22751,13 @@
         <v>136</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E86" s="5" t="n">
         <v>12</v>
@@ -22762,13 +22768,13 @@
         <v>137</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E87" s="5" t="n">
         <v>8</v>
@@ -22779,13 +22785,13 @@
         <v>138</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E88" s="5" t="n">
         <v>12</v>
@@ -22796,13 +22802,13 @@
         <v>139</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E89" s="5" t="n">
         <v>13</v>
@@ -22813,13 +22819,13 @@
         <v>140</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E90" s="5" t="n">
         <v>11</v>
@@ -22830,13 +22836,13 @@
         <v>141</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E91" s="5" t="n">
         <v>8</v>
@@ -22847,13 +22853,13 @@
         <v>142</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E92" s="5" t="n">
         <v>19</v>
@@ -22864,13 +22870,13 @@
         <v>143</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E93" s="5" t="n">
         <v>5</v>
@@ -22881,13 +22887,13 @@
         <v>144</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E94" s="5" t="n">
         <v>17</v>
@@ -22898,13 +22904,13 @@
         <v>110</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E95" s="5" t="n">
         <v>7</v>
@@ -22915,13 +22921,13 @@
         <v>112</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E96" s="5" t="n">
         <v>14</v>
@@ -22932,13 +22938,13 @@
         <v>113</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E97" s="5" t="n">
         <v>10</v>
@@ -22949,13 +22955,13 @@
         <v>115</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E98" s="5" t="n">
         <v>8</v>
@@ -22966,13 +22972,13 @@
         <v>116</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E99" s="5" t="n">
         <v>10</v>
@@ -22983,13 +22989,13 @@
         <v>117</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E100" s="5" t="n">
         <v>18</v>
@@ -23000,13 +23006,13 @@
         <v>118</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E101" s="5" t="n">
         <v>1</v>
@@ -23017,13 +23023,13 @@
         <v>119</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E102" s="5" t="n">
         <v>8</v>
@@ -23034,13 +23040,13 @@
         <v>120</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E103" s="5" t="n">
         <v>13</v>
@@ -23051,13 +23057,13 @@
         <v>121</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E104" s="5" t="n">
         <v>13</v>
@@ -23068,13 +23074,13 @@
         <v>122</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E105" s="5" t="n">
         <v>16</v>
@@ -23085,13 +23091,13 @@
         <v>123</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E106" s="5" t="n">
         <v>15</v>
@@ -23102,13 +23108,13 @@
         <v>124</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E107" s="5" t="n">
         <v>7</v>
@@ -23119,13 +23125,13 @@
         <v>125</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E108" s="5" t="n">
         <v>9</v>
@@ -23136,13 +23142,13 @@
         <v>126</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E109" s="5" t="n">
         <v>6</v>
@@ -23153,13 +23159,13 @@
         <v>127</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E110" s="5" t="n">
         <v>19</v>
@@ -23170,13 +23176,13 @@
         <v>128</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E111" s="5" t="n">
         <v>12</v>
@@ -23187,13 +23193,13 @@
         <v>130</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E112" s="5" t="n">
         <v>10</v>
@@ -23204,13 +23210,13 @@
         <v>132</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E113" s="5" t="n">
         <v>14</v>
@@ -23221,13 +23227,13 @@
         <v>133</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C114" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E114" s="5" t="n">
         <v>10</v>
@@ -23238,13 +23244,13 @@
         <v>134</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E115" s="5" t="n">
         <v>6</v>
@@ -23255,13 +23261,13 @@
         <v>135</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E116" s="5" t="n">
         <v>12</v>
@@ -23272,13 +23278,13 @@
         <v>136</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E117" s="5" t="n">
         <v>14</v>
@@ -23289,13 +23295,13 @@
         <v>137</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E118" s="5" t="n">
         <v>9</v>
@@ -23306,13 +23312,13 @@
         <v>138</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E119" s="5" t="n">
         <v>14</v>
@@ -23323,13 +23329,13 @@
         <v>139</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E120" s="5" t="n">
         <v>15</v>
@@ -23340,13 +23346,13 @@
         <v>140</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E121" s="5" t="n">
         <v>10</v>
@@ -23357,13 +23363,13 @@
         <v>141</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E122" s="5" t="n">
         <v>13</v>
@@ -23374,13 +23380,13 @@
         <v>142</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E123" s="5" t="n">
         <v>16</v>
@@ -23391,13 +23397,13 @@
         <v>143</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E124" s="5" t="n">
         <v>9</v>
@@ -23408,13 +23414,13 @@
         <v>144</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E125" s="5" t="n">
         <v>17</v>
@@ -23439,7 +23445,7 @@
   <dimension ref="A1:E249"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="B49:B63 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23462,10 +23468,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23473,7 +23479,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2</v>
@@ -23490,7 +23496,7 @@
         <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2</v>
@@ -23507,7 +23513,7 @@
         <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2</v>
@@ -23524,7 +23530,7 @@
         <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2</v>
@@ -23541,7 +23547,7 @@
         <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
@@ -23556,7 +23562,7 @@
         <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
@@ -23573,7 +23579,7 @@
         <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -23590,7 +23596,7 @@
         <v>119</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -23607,7 +23613,7 @@
         <v>120</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2</v>
@@ -23624,7 +23630,7 @@
         <v>121</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2</v>
@@ -23641,7 +23647,7 @@
         <v>122</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2</v>
@@ -23658,7 +23664,7 @@
         <v>123</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2</v>
@@ -23675,7 +23681,7 @@
         <v>124</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2</v>
@@ -23692,7 +23698,7 @@
         <v>125</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2</v>
@@ -23709,7 +23715,7 @@
         <v>126</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2</v>
@@ -23726,7 +23732,7 @@
         <v>127</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2</v>
@@ -23743,7 +23749,7 @@
         <v>128</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2</v>
@@ -23760,7 +23766,7 @@
         <v>130</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2</v>
@@ -23777,7 +23783,7 @@
         <v>132</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2</v>
@@ -23794,7 +23800,7 @@
         <v>133</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2</v>
@@ -23811,7 +23817,7 @@
         <v>134</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2</v>
@@ -23828,7 +23834,7 @@
         <v>135</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2</v>
@@ -23845,7 +23851,7 @@
         <v>136</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2</v>
@@ -23862,7 +23868,7 @@
         <v>137</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2</v>
@@ -23879,7 +23885,7 @@
         <v>138</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2</v>
@@ -23896,7 +23902,7 @@
         <v>139</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2</v>
@@ -23913,7 +23919,7 @@
         <v>140</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2</v>
@@ -23930,7 +23936,7 @@
         <v>141</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2</v>
@@ -23947,7 +23953,7 @@
         <v>142</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2</v>
@@ -23964,7 +23970,7 @@
         <v>143</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2</v>
@@ -23981,7 +23987,7 @@
         <v>144</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2</v>
@@ -23998,7 +24004,7 @@
         <v>110</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4</v>
@@ -24015,7 +24021,7 @@
         <v>112</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4</v>
@@ -24032,7 +24038,7 @@
         <v>113</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4</v>
@@ -24049,7 +24055,7 @@
         <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4</v>
@@ -24066,7 +24072,7 @@
         <v>116</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4</v>
@@ -24083,7 +24089,7 @@
         <v>117</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4</v>
@@ -24100,7 +24106,7 @@
         <v>118</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4</v>
@@ -24117,7 +24123,7 @@
         <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4</v>
@@ -24134,7 +24140,7 @@
         <v>120</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4</v>
@@ -24149,7 +24155,7 @@
         <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4</v>
@@ -24166,7 +24172,7 @@
         <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4</v>
@@ -24183,7 +24189,7 @@
         <v>123</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4</v>
@@ -24200,7 +24206,7 @@
         <v>124</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4</v>
@@ -24217,7 +24223,7 @@
         <v>125</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4</v>
@@ -24234,7 +24240,7 @@
         <v>126</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4</v>
@@ -24251,7 +24257,7 @@
         <v>127</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4</v>
@@ -24268,7 +24274,7 @@
         <v>128</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4</v>
@@ -24285,7 +24291,7 @@
         <v>130</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4</v>
@@ -24302,7 +24308,7 @@
         <v>132</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4</v>
@@ -24319,7 +24325,7 @@
         <v>133</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4</v>
@@ -24336,7 +24342,7 @@
         <v>134</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4</v>
@@ -24353,7 +24359,7 @@
         <v>135</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4</v>
@@ -24370,7 +24376,7 @@
         <v>136</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4</v>
@@ -24387,7 +24393,7 @@
         <v>137</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4</v>
@@ -24404,7 +24410,7 @@
         <v>138</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4</v>
@@ -24421,7 +24427,7 @@
         <v>139</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4</v>
@@ -24438,7 +24444,7 @@
         <v>140</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4</v>
@@ -24455,7 +24461,7 @@
         <v>141</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4</v>
@@ -24472,7 +24478,7 @@
         <v>142</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4</v>
@@ -24489,7 +24495,7 @@
         <v>143</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4</v>
@@ -24506,7 +24512,7 @@
         <v>144</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4</v>
@@ -24523,7 +24529,7 @@
         <v>110</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2</v>
@@ -24540,7 +24546,7 @@
         <v>112</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2</v>
@@ -24557,7 +24563,7 @@
         <v>113</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2</v>
@@ -24574,7 +24580,7 @@
         <v>115</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2</v>
@@ -24591,7 +24597,7 @@
         <v>116</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2</v>
@@ -24606,7 +24612,7 @@
         <v>117</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2</v>
@@ -24623,7 +24629,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2</v>
@@ -24640,7 +24646,7 @@
         <v>119</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2</v>
@@ -24657,7 +24663,7 @@
         <v>120</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2</v>
@@ -24674,7 +24680,7 @@
         <v>121</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2</v>
@@ -24691,7 +24697,7 @@
         <v>122</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2</v>
@@ -24708,7 +24714,7 @@
         <v>123</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2</v>
@@ -24725,7 +24731,7 @@
         <v>124</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2</v>
@@ -24742,7 +24748,7 @@
         <v>125</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2</v>
@@ -24759,7 +24765,7 @@
         <v>126</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2</v>
@@ -24776,7 +24782,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2</v>
@@ -24793,7 +24799,7 @@
         <v>128</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2</v>
@@ -24810,7 +24816,7 @@
         <v>130</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2</v>
@@ -24827,7 +24833,7 @@
         <v>132</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2</v>
@@ -24844,7 +24850,7 @@
         <v>133</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2</v>
@@ -24861,7 +24867,7 @@
         <v>134</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2</v>
@@ -24878,7 +24884,7 @@
         <v>135</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2</v>
@@ -24895,7 +24901,7 @@
         <v>136</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2</v>
@@ -24912,7 +24918,7 @@
         <v>137</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2</v>
@@ -24929,7 +24935,7 @@
         <v>138</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2</v>
@@ -24946,7 +24952,7 @@
         <v>139</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>2</v>
@@ -24963,7 +24969,7 @@
         <v>140</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>2</v>
@@ -24980,7 +24986,7 @@
         <v>141</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>2</v>
@@ -24997,7 +25003,7 @@
         <v>142</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>2</v>
@@ -25014,7 +25020,7 @@
         <v>143</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>2</v>
@@ -25031,7 +25037,7 @@
         <v>144</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>2</v>
@@ -25048,7 +25054,7 @@
         <v>110</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>4</v>
@@ -25065,7 +25071,7 @@
         <v>112</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>4</v>
@@ -25082,7 +25088,7 @@
         <v>113</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>4</v>
@@ -25099,7 +25105,7 @@
         <v>115</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>4</v>
@@ -25116,7 +25122,7 @@
         <v>116</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>4</v>
@@ -25133,7 +25139,7 @@
         <v>117</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>4</v>
@@ -25150,7 +25156,7 @@
         <v>118</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>4</v>
@@ -25165,7 +25171,7 @@
         <v>119</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>4</v>
@@ -25182,7 +25188,7 @@
         <v>120</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>4</v>
@@ -25199,7 +25205,7 @@
         <v>121</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>4</v>
@@ -25216,7 +25222,7 @@
         <v>122</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>4</v>
@@ -25233,7 +25239,7 @@
         <v>123</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>4</v>
@@ -25250,7 +25256,7 @@
         <v>124</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>4</v>
@@ -25267,7 +25273,7 @@
         <v>125</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>4</v>
@@ -25284,7 +25290,7 @@
         <v>126</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>4</v>
@@ -25301,7 +25307,7 @@
         <v>127</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>4</v>
@@ -25318,7 +25324,7 @@
         <v>128</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>4</v>
@@ -25335,7 +25341,7 @@
         <v>130</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>4</v>
@@ -25352,7 +25358,7 @@
         <v>132</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>4</v>
@@ -25369,7 +25375,7 @@
         <v>133</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C114" s="2" t="n">
         <v>4</v>
@@ -25386,7 +25392,7 @@
         <v>134</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>4</v>
@@ -25403,7 +25409,7 @@
         <v>135</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>4</v>
@@ -25420,7 +25426,7 @@
         <v>136</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>4</v>
@@ -25437,7 +25443,7 @@
         <v>137</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>4</v>
@@ -25454,7 +25460,7 @@
         <v>138</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>4</v>
@@ -25471,7 +25477,7 @@
         <v>139</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>4</v>
@@ -25488,7 +25494,7 @@
         <v>140</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>4</v>
@@ -25505,7 +25511,7 @@
         <v>141</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>4</v>
@@ -25522,7 +25528,7 @@
         <v>142</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>4</v>
@@ -25539,7 +25545,7 @@
         <v>143</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>4</v>
@@ -25556,7 +25562,7 @@
         <v>144</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>4</v>
@@ -25573,7 +25579,7 @@
         <v>110</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>2</v>
@@ -25590,7 +25596,7 @@
         <v>112</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C127" s="2" t="n">
         <v>2</v>
@@ -25607,7 +25613,7 @@
         <v>113</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C128" s="2" t="n">
         <v>2</v>
@@ -25624,7 +25630,7 @@
         <v>115</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C129" s="2" t="n">
         <v>2</v>
@@ -25641,7 +25647,7 @@
         <v>116</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C130" s="2" t="n">
         <v>2</v>
@@ -25656,7 +25662,7 @@
         <v>117</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C131" s="2" t="n">
         <v>2</v>
@@ -25673,7 +25679,7 @@
         <v>118</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C132" s="2" t="n">
         <v>2</v>
@@ -25690,7 +25696,7 @@
         <v>119</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C133" s="2" t="n">
         <v>2</v>
@@ -25707,7 +25713,7 @@
         <v>120</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C134" s="2" t="n">
         <v>2</v>
@@ -25724,7 +25730,7 @@
         <v>121</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C135" s="2" t="n">
         <v>2</v>
@@ -25741,7 +25747,7 @@
         <v>122</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C136" s="2" t="n">
         <v>2</v>
@@ -25758,7 +25764,7 @@
         <v>123</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>2</v>
@@ -25775,7 +25781,7 @@
         <v>124</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>2</v>
@@ -25792,7 +25798,7 @@
         <v>125</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C139" s="2" t="n">
         <v>2</v>
@@ -25809,7 +25815,7 @@
         <v>126</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C140" s="2" t="n">
         <v>2</v>
@@ -25826,7 +25832,7 @@
         <v>127</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C141" s="2" t="n">
         <v>2</v>
@@ -25843,7 +25849,7 @@
         <v>128</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C142" s="2" t="n">
         <v>2</v>
@@ -25860,7 +25866,7 @@
         <v>130</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C143" s="2" t="n">
         <v>2</v>
@@ -25877,7 +25883,7 @@
         <v>132</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C144" s="2" t="n">
         <v>2</v>
@@ -25894,7 +25900,7 @@
         <v>133</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C145" s="2" t="n">
         <v>2</v>
@@ -25911,7 +25917,7 @@
         <v>134</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C146" s="2" t="n">
         <v>2</v>
@@ -25928,7 +25934,7 @@
         <v>135</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C147" s="2" t="n">
         <v>2</v>
@@ -25945,7 +25951,7 @@
         <v>136</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C148" s="2" t="n">
         <v>2</v>
@@ -25962,7 +25968,7 @@
         <v>137</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C149" s="2" t="n">
         <v>2</v>
@@ -25979,7 +25985,7 @@
         <v>138</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C150" s="2" t="n">
         <v>2</v>
@@ -25996,7 +26002,7 @@
         <v>139</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C151" s="2" t="n">
         <v>2</v>
@@ -26013,7 +26019,7 @@
         <v>140</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C152" s="2" t="n">
         <v>2</v>
@@ -26030,7 +26036,7 @@
         <v>141</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C153" s="2" t="n">
         <v>2</v>
@@ -26047,7 +26053,7 @@
         <v>142</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C154" s="2" t="n">
         <v>2</v>
@@ -26064,7 +26070,7 @@
         <v>143</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C155" s="2" t="n">
         <v>2</v>
@@ -26081,7 +26087,7 @@
         <v>144</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C156" s="2" t="n">
         <v>2</v>
@@ -26098,7 +26104,7 @@
         <v>110</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C157" s="2" t="n">
         <v>4</v>
@@ -26115,7 +26121,7 @@
         <v>112</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C158" s="2" t="n">
         <v>4</v>
@@ -26132,7 +26138,7 @@
         <v>113</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C159" s="2" t="n">
         <v>4</v>
@@ -26149,7 +26155,7 @@
         <v>115</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C160" s="2" t="n">
         <v>4</v>
@@ -26166,7 +26172,7 @@
         <v>116</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C161" s="2" t="n">
         <v>4</v>
@@ -26183,7 +26189,7 @@
         <v>117</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C162" s="2" t="n">
         <v>4</v>
@@ -26200,7 +26206,7 @@
         <v>118</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C163" s="2" t="n">
         <v>4</v>
@@ -26217,7 +26223,7 @@
         <v>119</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C164" s="2" t="n">
         <v>4</v>
@@ -26234,7 +26240,7 @@
         <v>120</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C165" s="2" t="n">
         <v>4</v>
@@ -26251,7 +26257,7 @@
         <v>121</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C166" s="2" t="n">
         <v>4</v>
@@ -26268,7 +26274,7 @@
         <v>122</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C167" s="2" t="n">
         <v>4</v>
@@ -26285,7 +26291,7 @@
         <v>123</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C168" s="2" t="n">
         <v>4</v>
@@ -26302,7 +26308,7 @@
         <v>124</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C169" s="2" t="n">
         <v>4</v>
@@ -26319,7 +26325,7 @@
         <v>125</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C170" s="2" t="n">
         <v>4</v>
@@ -26336,7 +26342,7 @@
         <v>126</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C171" s="2" t="n">
         <v>4</v>
@@ -26353,7 +26359,7 @@
         <v>127</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C172" s="2" t="n">
         <v>4</v>
@@ -26370,7 +26376,7 @@
         <v>128</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C173" s="2" t="n">
         <v>4</v>
@@ -26387,7 +26393,7 @@
         <v>130</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C174" s="2" t="n">
         <v>4</v>
@@ -26404,7 +26410,7 @@
         <v>132</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C175" s="2" t="n">
         <v>4</v>
@@ -26421,7 +26427,7 @@
         <v>133</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C176" s="2" t="n">
         <v>4</v>
@@ -26438,7 +26444,7 @@
         <v>134</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C177" s="2" t="n">
         <v>4</v>
@@ -26455,7 +26461,7 @@
         <v>135</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C178" s="2" t="n">
         <v>4</v>
@@ -26472,7 +26478,7 @@
         <v>136</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C179" s="2" t="n">
         <v>4</v>
@@ -26489,7 +26495,7 @@
         <v>137</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C180" s="2" t="n">
         <v>4</v>
@@ -26506,7 +26512,7 @@
         <v>138</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C181" s="2" t="n">
         <v>4</v>
@@ -26523,7 +26529,7 @@
         <v>139</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C182" s="2" t="n">
         <v>4</v>
@@ -26540,7 +26546,7 @@
         <v>140</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C183" s="2" t="n">
         <v>4</v>
@@ -26557,7 +26563,7 @@
         <v>141</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C184" s="2" t="n">
         <v>4</v>
@@ -26574,7 +26580,7 @@
         <v>142</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C185" s="2" t="n">
         <v>4</v>
@@ -26591,7 +26597,7 @@
         <v>143</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C186" s="2" t="n">
         <v>4</v>
@@ -26608,7 +26614,7 @@
         <v>144</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C187" s="2" t="n">
         <v>4</v>
@@ -26625,7 +26631,7 @@
         <v>110</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C188" s="2" t="n">
         <v>2</v>
@@ -26642,7 +26648,7 @@
         <v>112</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C189" s="2" t="n">
         <v>2</v>
@@ -26657,7 +26663,7 @@
         <v>113</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C190" s="2" t="n">
         <v>2</v>
@@ -26674,7 +26680,7 @@
         <v>115</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C191" s="2" t="n">
         <v>2</v>
@@ -26691,7 +26697,7 @@
         <v>116</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C192" s="2" t="n">
         <v>2</v>
@@ -26706,7 +26712,7 @@
         <v>117</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C193" s="2" t="n">
         <v>2</v>
@@ -26723,7 +26729,7 @@
         <v>118</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C194" s="2" t="n">
         <v>2</v>
@@ -26740,7 +26746,7 @@
         <v>119</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C195" s="2" t="n">
         <v>2</v>
@@ -26757,7 +26763,7 @@
         <v>120</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C196" s="2" t="n">
         <v>2</v>
@@ -26774,7 +26780,7 @@
         <v>121</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C197" s="2" t="n">
         <v>2</v>
@@ -26791,7 +26797,7 @@
         <v>122</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C198" s="2" t="n">
         <v>2</v>
@@ -26808,7 +26814,7 @@
         <v>123</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C199" s="2" t="n">
         <v>2</v>
@@ -26825,7 +26831,7 @@
         <v>124</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C200" s="2" t="n">
         <v>2</v>
@@ -26842,7 +26848,7 @@
         <v>125</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C201" s="2" t="n">
         <v>2</v>
@@ -26859,7 +26865,7 @@
         <v>126</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C202" s="2" t="n">
         <v>2</v>
@@ -26876,7 +26882,7 @@
         <v>127</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C203" s="2" t="n">
         <v>2</v>
@@ -26893,7 +26899,7 @@
         <v>128</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C204" s="2" t="n">
         <v>2</v>
@@ -26910,7 +26916,7 @@
         <v>130</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C205" s="2" t="n">
         <v>2</v>
@@ -26927,7 +26933,7 @@
         <v>132</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C206" s="2" t="n">
         <v>2</v>
@@ -26944,7 +26950,7 @@
         <v>133</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C207" s="2" t="n">
         <v>2</v>
@@ -26961,7 +26967,7 @@
         <v>134</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C208" s="2" t="n">
         <v>2</v>
@@ -26978,7 +26984,7 @@
         <v>135</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C209" s="2" t="n">
         <v>2</v>
@@ -26995,7 +27001,7 @@
         <v>136</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C210" s="2" t="n">
         <v>2</v>
@@ -27012,7 +27018,7 @@
         <v>137</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C211" s="2" t="n">
         <v>2</v>
@@ -27029,7 +27035,7 @@
         <v>138</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C212" s="2" t="n">
         <v>2</v>
@@ -27046,7 +27052,7 @@
         <v>139</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C213" s="2" t="n">
         <v>2</v>
@@ -27063,7 +27069,7 @@
         <v>140</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C214" s="2" t="n">
         <v>2</v>
@@ -27080,7 +27086,7 @@
         <v>141</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C215" s="2" t="n">
         <v>2</v>
@@ -27097,7 +27103,7 @@
         <v>142</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C216" s="2" t="n">
         <v>2</v>
@@ -27114,7 +27120,7 @@
         <v>143</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C217" s="2" t="n">
         <v>2</v>
@@ -27131,7 +27137,7 @@
         <v>144</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C218" s="2" t="n">
         <v>2</v>
@@ -27148,7 +27154,7 @@
         <v>110</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C219" s="2" t="n">
         <v>4</v>
@@ -27165,7 +27171,7 @@
         <v>112</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C220" s="2" t="n">
         <v>4</v>
@@ -27182,7 +27188,7 @@
         <v>113</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C221" s="2" t="n">
         <v>4</v>
@@ -27199,7 +27205,7 @@
         <v>115</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C222" s="2" t="n">
         <v>4</v>
@@ -27216,7 +27222,7 @@
         <v>116</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C223" s="2" t="n">
         <v>4</v>
@@ -27233,7 +27239,7 @@
         <v>117</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C224" s="2" t="n">
         <v>4</v>
@@ -27250,7 +27256,7 @@
         <v>118</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C225" s="2" t="n">
         <v>4</v>
@@ -27267,7 +27273,7 @@
         <v>119</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C226" s="2" t="n">
         <v>4</v>
@@ -27284,7 +27290,7 @@
         <v>120</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C227" s="2" t="n">
         <v>4</v>
@@ -27301,7 +27307,7 @@
         <v>121</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C228" s="2" t="n">
         <v>4</v>
@@ -27318,7 +27324,7 @@
         <v>122</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C229" s="2" t="n">
         <v>4</v>
@@ -27335,7 +27341,7 @@
         <v>123</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C230" s="2" t="n">
         <v>4</v>
@@ -27352,7 +27358,7 @@
         <v>124</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C231" s="2" t="n">
         <v>4</v>
@@ -27369,7 +27375,7 @@
         <v>125</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C232" s="2" t="n">
         <v>4</v>
@@ -27386,7 +27392,7 @@
         <v>126</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C233" s="2" t="n">
         <v>4</v>
@@ -27403,7 +27409,7 @@
         <v>127</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C234" s="2" t="n">
         <v>4</v>
@@ -27420,7 +27426,7 @@
         <v>128</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C235" s="2" t="n">
         <v>4</v>
@@ -27435,7 +27441,7 @@
         <v>130</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C236" s="2" t="n">
         <v>4</v>
@@ -27452,7 +27458,7 @@
         <v>132</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C237" s="2" t="n">
         <v>4</v>
@@ -27469,7 +27475,7 @@
         <v>133</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C238" s="2" t="n">
         <v>4</v>
@@ -27486,7 +27492,7 @@
         <v>134</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C239" s="2" t="n">
         <v>4</v>
@@ -27503,7 +27509,7 @@
         <v>135</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C240" s="2" t="n">
         <v>4</v>
@@ -27520,7 +27526,7 @@
         <v>136</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C241" s="2" t="n">
         <v>4</v>
@@ -27537,7 +27543,7 @@
         <v>137</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C242" s="2" t="n">
         <v>4</v>
@@ -27554,7 +27560,7 @@
         <v>138</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C243" s="2" t="n">
         <v>4</v>
@@ -27571,7 +27577,7 @@
         <v>139</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C244" s="2" t="n">
         <v>4</v>
@@ -27588,7 +27594,7 @@
         <v>140</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C245" s="2" t="n">
         <v>4</v>
@@ -27605,7 +27611,7 @@
         <v>141</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C246" s="2" t="n">
         <v>4</v>
@@ -27622,7 +27628,7 @@
         <v>142</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C247" s="2" t="n">
         <v>4</v>
@@ -27639,7 +27645,7 @@
         <v>143</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C248" s="2" t="n">
         <v>4</v>
@@ -27656,7 +27662,7 @@
         <v>144</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C249" s="2" t="n">
         <v>4</v>
@@ -27687,7 +27693,7 @@
   <dimension ref="A1:E497"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="I14" activeCellId="1" sqref="B49:B63 I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27710,10 +27716,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27721,7 +27727,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2</v>
@@ -27738,7 +27744,7 @@
         <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2</v>
@@ -27755,7 +27761,7 @@
         <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2</v>
@@ -27772,7 +27778,7 @@
         <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2</v>
@@ -27789,7 +27795,7 @@
         <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2</v>
@@ -27804,7 +27810,7 @@
         <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
@@ -27821,7 +27827,7 @@
         <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -27838,7 +27844,7 @@
         <v>119</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2</v>
@@ -27855,7 +27861,7 @@
         <v>120</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2</v>
@@ -27872,7 +27878,7 @@
         <v>121</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2</v>
@@ -27889,7 +27895,7 @@
         <v>122</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2</v>
@@ -27906,7 +27912,7 @@
         <v>123</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2</v>
@@ -27921,7 +27927,7 @@
         <v>124</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2</v>
@@ -27938,7 +27944,7 @@
         <v>125</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2</v>
@@ -27955,7 +27961,7 @@
         <v>126</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2</v>
@@ -27972,7 +27978,7 @@
         <v>127</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2</v>
@@ -27989,7 +27995,7 @@
         <v>128</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2</v>
@@ -28006,7 +28012,7 @@
         <v>130</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2</v>
@@ -28023,7 +28029,7 @@
         <v>132</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2</v>
@@ -28040,7 +28046,7 @@
         <v>133</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2</v>
@@ -28057,7 +28063,7 @@
         <v>134</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2</v>
@@ -28074,7 +28080,7 @@
         <v>135</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2</v>
@@ -28091,7 +28097,7 @@
         <v>136</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2</v>
@@ -28108,7 +28114,7 @@
         <v>137</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2</v>
@@ -28125,7 +28131,7 @@
         <v>138</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2</v>
@@ -28142,7 +28148,7 @@
         <v>139</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2</v>
@@ -28159,7 +28165,7 @@
         <v>140</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2</v>
@@ -28176,7 +28182,7 @@
         <v>141</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2</v>
@@ -28193,7 +28199,7 @@
         <v>142</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2</v>
@@ -28210,7 +28216,7 @@
         <v>143</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2</v>
@@ -28227,7 +28233,7 @@
         <v>144</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2</v>
@@ -28244,7 +28250,7 @@
         <v>110</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4</v>
@@ -28261,7 +28267,7 @@
         <v>112</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4</v>
@@ -28278,7 +28284,7 @@
         <v>113</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4</v>
@@ -28295,7 +28301,7 @@
         <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4</v>
@@ -28312,7 +28318,7 @@
         <v>116</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4</v>
@@ -28327,7 +28333,7 @@
         <v>117</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4</v>
@@ -28344,7 +28350,7 @@
         <v>118</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4</v>
@@ -28361,7 +28367,7 @@
         <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4</v>
@@ -28378,7 +28384,7 @@
         <v>120</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4</v>
@@ -28395,7 +28401,7 @@
         <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4</v>
@@ -28412,7 +28418,7 @@
         <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4</v>
@@ -28429,7 +28435,7 @@
         <v>123</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4</v>
@@ -28446,7 +28452,7 @@
         <v>124</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4</v>
@@ -28463,7 +28469,7 @@
         <v>125</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4</v>
@@ -28480,7 +28486,7 @@
         <v>126</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4</v>
@@ -28497,7 +28503,7 @@
         <v>127</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4</v>
@@ -28514,7 +28520,7 @@
         <v>128</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4</v>
@@ -28531,7 +28537,7 @@
         <v>130</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4</v>
@@ -28548,7 +28554,7 @@
         <v>132</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4</v>
@@ -28565,7 +28571,7 @@
         <v>133</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4</v>
@@ -28582,7 +28588,7 @@
         <v>134</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4</v>
@@ -28599,7 +28605,7 @@
         <v>135</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4</v>
@@ -28616,7 +28622,7 @@
         <v>136</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4</v>
@@ -28631,7 +28637,7 @@
         <v>137</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4</v>
@@ -28648,7 +28654,7 @@
         <v>138</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4</v>
@@ -28665,7 +28671,7 @@
         <v>139</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4</v>
@@ -28682,7 +28688,7 @@
         <v>140</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4</v>
@@ -28699,7 +28705,7 @@
         <v>141</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4</v>
@@ -28716,7 +28722,7 @@
         <v>142</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4</v>
@@ -28733,7 +28739,7 @@
         <v>143</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4</v>
@@ -28750,7 +28756,7 @@
         <v>144</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4</v>
@@ -28767,7 +28773,7 @@
         <v>110</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2</v>
@@ -28784,7 +28790,7 @@
         <v>112</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2</v>
@@ -28801,7 +28807,7 @@
         <v>113</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2</v>
@@ -28818,7 +28824,7 @@
         <v>115</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2</v>
@@ -28835,7 +28841,7 @@
         <v>116</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2</v>
@@ -28850,7 +28856,7 @@
         <v>117</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2</v>
@@ -28867,7 +28873,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2</v>
@@ -28884,7 +28890,7 @@
         <v>119</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2</v>
@@ -28901,7 +28907,7 @@
         <v>120</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2</v>
@@ -28918,7 +28924,7 @@
         <v>121</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2</v>
@@ -28935,7 +28941,7 @@
         <v>122</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2</v>
@@ -28952,7 +28958,7 @@
         <v>123</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2</v>
@@ -28969,7 +28975,7 @@
         <v>124</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2</v>
@@ -28986,7 +28992,7 @@
         <v>125</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2</v>
@@ -29003,7 +29009,7 @@
         <v>126</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2</v>
@@ -29020,7 +29026,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2</v>
@@ -29037,7 +29043,7 @@
         <v>128</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2</v>
@@ -29054,7 +29060,7 @@
         <v>130</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2</v>
@@ -29071,7 +29077,7 @@
         <v>132</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2</v>
@@ -29088,7 +29094,7 @@
         <v>133</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2</v>
@@ -29105,7 +29111,7 @@
         <v>134</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2</v>
@@ -29122,7 +29128,7 @@
         <v>135</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2</v>
@@ -29139,7 +29145,7 @@
         <v>136</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2</v>
@@ -29156,7 +29162,7 @@
         <v>137</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2</v>
@@ -29171,7 +29177,7 @@
         <v>138</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2</v>
@@ -29188,7 +29194,7 @@
         <v>139</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>2</v>
@@ -29205,7 +29211,7 @@
         <v>140</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>2</v>
@@ -29222,7 +29228,7 @@
         <v>141</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>2</v>
@@ -29239,7 +29245,7 @@
         <v>142</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>2</v>
@@ -29256,7 +29262,7 @@
         <v>143</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>2</v>
@@ -29273,7 +29279,7 @@
         <v>144</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>2</v>
@@ -29290,7 +29296,7 @@
         <v>110</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>4</v>
@@ -29307,7 +29313,7 @@
         <v>112</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>4</v>
@@ -29324,7 +29330,7 @@
         <v>113</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>4</v>
@@ -29341,7 +29347,7 @@
         <v>115</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>4</v>
@@ -29358,7 +29364,7 @@
         <v>116</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>4</v>
@@ -29373,7 +29379,7 @@
         <v>117</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>4</v>
@@ -29390,7 +29396,7 @@
         <v>118</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>4</v>
@@ -29407,7 +29413,7 @@
         <v>119</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>4</v>
@@ -29424,7 +29430,7 @@
         <v>120</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>4</v>
@@ -29441,7 +29447,7 @@
         <v>121</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>4</v>
@@ -29458,7 +29464,7 @@
         <v>122</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>4</v>
@@ -29475,7 +29481,7 @@
         <v>123</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>4</v>
@@ -29492,7 +29498,7 @@
         <v>124</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>4</v>
@@ -29509,7 +29515,7 @@
         <v>125</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>4</v>
@@ -29526,7 +29532,7 @@
         <v>126</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>4</v>
@@ -29543,7 +29549,7 @@
         <v>127</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>4</v>
@@ -29560,7 +29566,7 @@
         <v>128</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>4</v>
@@ -29577,7 +29583,7 @@
         <v>130</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>4</v>
@@ -29594,7 +29600,7 @@
         <v>132</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>4</v>
@@ -29611,7 +29617,7 @@
         <v>133</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C114" s="2" t="n">
         <v>4</v>
@@ -29628,7 +29634,7 @@
         <v>134</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>4</v>
@@ -29645,7 +29651,7 @@
         <v>135</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>4</v>
@@ -29662,7 +29668,7 @@
         <v>136</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>4</v>
@@ -29677,7 +29683,7 @@
         <v>137</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>4</v>
@@ -29694,7 +29700,7 @@
         <v>138</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>4</v>
@@ -29711,7 +29717,7 @@
         <v>139</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>4</v>
@@ -29728,7 +29734,7 @@
         <v>140</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>4</v>
@@ -29745,7 +29751,7 @@
         <v>141</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>4</v>
@@ -29762,7 +29768,7 @@
         <v>142</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>4</v>
@@ -29779,7 +29785,7 @@
         <v>143</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>4</v>
@@ -29796,7 +29802,7 @@
         <v>144</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>4</v>
@@ -29813,7 +29819,7 @@
         <v>110</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>2</v>
@@ -29830,7 +29836,7 @@
         <v>112</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C127" s="2" t="n">
         <v>2</v>
@@ -29847,7 +29853,7 @@
         <v>113</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C128" s="2" t="n">
         <v>2</v>
@@ -29864,7 +29870,7 @@
         <v>115</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C129" s="2" t="n">
         <v>2</v>
@@ -29881,7 +29887,7 @@
         <v>116</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C130" s="2" t="n">
         <v>2</v>
@@ -29896,7 +29902,7 @@
         <v>117</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C131" s="2" t="n">
         <v>2</v>
@@ -29913,7 +29919,7 @@
         <v>118</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C132" s="2" t="n">
         <v>2</v>
@@ -29930,7 +29936,7 @@
         <v>119</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C133" s="2" t="n">
         <v>2</v>
@@ -29947,7 +29953,7 @@
         <v>120</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C134" s="2" t="n">
         <v>2</v>
@@ -29964,7 +29970,7 @@
         <v>121</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C135" s="2" t="n">
         <v>2</v>
@@ -29981,7 +29987,7 @@
         <v>122</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C136" s="2" t="n">
         <v>2</v>
@@ -29998,7 +30004,7 @@
         <v>123</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>2</v>
@@ -30015,7 +30021,7 @@
         <v>124</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>2</v>
@@ -30032,7 +30038,7 @@
         <v>125</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C139" s="2" t="n">
         <v>2</v>
@@ -30049,7 +30055,7 @@
         <v>126</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C140" s="2" t="n">
         <v>2</v>
@@ -30066,7 +30072,7 @@
         <v>127</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C141" s="2" t="n">
         <v>2</v>
@@ -30083,7 +30089,7 @@
         <v>128</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C142" s="2" t="n">
         <v>2</v>
@@ -30100,7 +30106,7 @@
         <v>130</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C143" s="2" t="n">
         <v>2</v>
@@ -30117,7 +30123,7 @@
         <v>132</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C144" s="2" t="n">
         <v>2</v>
@@ -30134,7 +30140,7 @@
         <v>133</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C145" s="2" t="n">
         <v>2</v>
@@ -30151,7 +30157,7 @@
         <v>134</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C146" s="2" t="n">
         <v>2</v>
@@ -30168,7 +30174,7 @@
         <v>135</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C147" s="2" t="n">
         <v>2</v>
@@ -30185,7 +30191,7 @@
         <v>136</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C148" s="2" t="n">
         <v>2</v>
@@ -30202,7 +30208,7 @@
         <v>137</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C149" s="2" t="n">
         <v>2</v>
@@ -30219,7 +30225,7 @@
         <v>138</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C150" s="2" t="n">
         <v>2</v>
@@ -30236,7 +30242,7 @@
         <v>139</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C151" s="2" t="n">
         <v>2</v>
@@ -30253,7 +30259,7 @@
         <v>140</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C152" s="2" t="n">
         <v>2</v>
@@ -30270,7 +30276,7 @@
         <v>141</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C153" s="2" t="n">
         <v>2</v>
@@ -30287,7 +30293,7 @@
         <v>142</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C154" s="2" t="n">
         <v>2</v>
@@ -30304,7 +30310,7 @@
         <v>143</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C155" s="2" t="n">
         <v>2</v>
@@ -30321,7 +30327,7 @@
         <v>144</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C156" s="2" t="n">
         <v>2</v>
@@ -30338,7 +30344,7 @@
         <v>110</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C157" s="2" t="n">
         <v>4</v>
@@ -30355,7 +30361,7 @@
         <v>112</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C158" s="2" t="n">
         <v>4</v>
@@ -30372,7 +30378,7 @@
         <v>113</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C159" s="2" t="n">
         <v>4</v>
@@ -30389,7 +30395,7 @@
         <v>115</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C160" s="2" t="n">
         <v>4</v>
@@ -30406,7 +30412,7 @@
         <v>116</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C161" s="2" t="n">
         <v>4</v>
@@ -30421,7 +30427,7 @@
         <v>117</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C162" s="2" t="n">
         <v>4</v>
@@ -30438,7 +30444,7 @@
         <v>118</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C163" s="2" t="n">
         <v>4</v>
@@ -30455,7 +30461,7 @@
         <v>119</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C164" s="2" t="n">
         <v>4</v>
@@ -30472,7 +30478,7 @@
         <v>120</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C165" s="2" t="n">
         <v>4</v>
@@ -30489,7 +30495,7 @@
         <v>121</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C166" s="2" t="n">
         <v>4</v>
@@ -30506,7 +30512,7 @@
         <v>122</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C167" s="2" t="n">
         <v>4</v>
@@ -30523,7 +30529,7 @@
         <v>123</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C168" s="2" t="n">
         <v>4</v>
@@ -30540,7 +30546,7 @@
         <v>124</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C169" s="2" t="n">
         <v>4</v>
@@ -30557,7 +30563,7 @@
         <v>125</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C170" s="2" t="n">
         <v>4</v>
@@ -30574,7 +30580,7 @@
         <v>126</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C171" s="2" t="n">
         <v>4</v>
@@ -30591,7 +30597,7 @@
         <v>127</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C172" s="2" t="n">
         <v>4</v>
@@ -30608,7 +30614,7 @@
         <v>128</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C173" s="2" t="n">
         <v>4</v>
@@ -30625,7 +30631,7 @@
         <v>130</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C174" s="2" t="n">
         <v>4</v>
@@ -30642,7 +30648,7 @@
         <v>132</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C175" s="2" t="n">
         <v>4</v>
@@ -30659,7 +30665,7 @@
         <v>133</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C176" s="2" t="n">
         <v>4</v>
@@ -30676,7 +30682,7 @@
         <v>134</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C177" s="2" t="n">
         <v>4</v>
@@ -30693,7 +30699,7 @@
         <v>135</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C178" s="2" t="n">
         <v>4</v>
@@ -30710,7 +30716,7 @@
         <v>136</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C179" s="2" t="n">
         <v>4</v>
@@ -30725,7 +30731,7 @@
         <v>137</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C180" s="2" t="n">
         <v>4</v>
@@ -30742,7 +30748,7 @@
         <v>138</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C181" s="2" t="n">
         <v>4</v>
@@ -30759,7 +30765,7 @@
         <v>139</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C182" s="2" t="n">
         <v>4</v>
@@ -30776,7 +30782,7 @@
         <v>140</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C183" s="2" t="n">
         <v>4</v>
@@ -30793,7 +30799,7 @@
         <v>141</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C184" s="2" t="n">
         <v>4</v>
@@ -30810,7 +30816,7 @@
         <v>142</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C185" s="2" t="n">
         <v>4</v>
@@ -30827,7 +30833,7 @@
         <v>143</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C186" s="2" t="n">
         <v>4</v>
@@ -30844,7 +30850,7 @@
         <v>144</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C187" s="2" t="n">
         <v>4</v>
@@ -30861,7 +30867,7 @@
         <v>110</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C188" s="2" t="n">
         <v>2</v>
@@ -30878,7 +30884,7 @@
         <v>112</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C189" s="2" t="n">
         <v>2</v>
@@ -30895,7 +30901,7 @@
         <v>113</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C190" s="2" t="n">
         <v>2</v>
@@ -30912,7 +30918,7 @@
         <v>115</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C191" s="2" t="n">
         <v>2</v>
@@ -30929,7 +30935,7 @@
         <v>116</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C192" s="2" t="n">
         <v>2</v>
@@ -30944,7 +30950,7 @@
         <v>117</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C193" s="2" t="n">
         <v>2</v>
@@ -30961,7 +30967,7 @@
         <v>118</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C194" s="2" t="n">
         <v>2</v>
@@ -30978,7 +30984,7 @@
         <v>119</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C195" s="2" t="n">
         <v>2</v>
@@ -30995,7 +31001,7 @@
         <v>120</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C196" s="2" t="n">
         <v>2</v>
@@ -31012,7 +31018,7 @@
         <v>121</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C197" s="2" t="n">
         <v>2</v>
@@ -31029,7 +31035,7 @@
         <v>122</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C198" s="2" t="n">
         <v>2</v>
@@ -31046,7 +31052,7 @@
         <v>123</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C199" s="2" t="n">
         <v>2</v>
@@ -31063,7 +31069,7 @@
         <v>124</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C200" s="2" t="n">
         <v>2</v>
@@ -31080,7 +31086,7 @@
         <v>125</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C201" s="2" t="n">
         <v>2</v>
@@ -31097,7 +31103,7 @@
         <v>126</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C202" s="2" t="n">
         <v>2</v>
@@ -31114,7 +31120,7 @@
         <v>127</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C203" s="2" t="n">
         <v>2</v>
@@ -31131,7 +31137,7 @@
         <v>128</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C204" s="2" t="n">
         <v>2</v>
@@ -31148,7 +31154,7 @@
         <v>130</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C205" s="2" t="n">
         <v>2</v>
@@ -31165,7 +31171,7 @@
         <v>132</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C206" s="2" t="n">
         <v>2</v>
@@ -31182,7 +31188,7 @@
         <v>133</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C207" s="2" t="n">
         <v>2</v>
@@ -31199,7 +31205,7 @@
         <v>134</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C208" s="2" t="n">
         <v>2</v>
@@ -31216,7 +31222,7 @@
         <v>135</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C209" s="2" t="n">
         <v>2</v>
@@ -31231,7 +31237,7 @@
         <v>136</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C210" s="2" t="n">
         <v>2</v>
@@ -31248,7 +31254,7 @@
         <v>137</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C211" s="2" t="n">
         <v>2</v>
@@ -31265,7 +31271,7 @@
         <v>138</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C212" s="2" t="n">
         <v>2</v>
@@ -31282,7 +31288,7 @@
         <v>139</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C213" s="2" t="n">
         <v>2</v>
@@ -31299,7 +31305,7 @@
         <v>140</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C214" s="2" t="n">
         <v>2</v>
@@ -31316,7 +31322,7 @@
         <v>141</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C215" s="2" t="n">
         <v>2</v>
@@ -31333,7 +31339,7 @@
         <v>142</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C216" s="2" t="n">
         <v>2</v>
@@ -31350,7 +31356,7 @@
         <v>143</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C217" s="2" t="n">
         <v>2</v>
@@ -31367,7 +31373,7 @@
         <v>144</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C218" s="2" t="n">
         <v>2</v>
@@ -31384,7 +31390,7 @@
         <v>110</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C219" s="2" t="n">
         <v>4</v>
@@ -31401,7 +31407,7 @@
         <v>112</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C220" s="2" t="n">
         <v>4</v>
@@ -31418,7 +31424,7 @@
         <v>113</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C221" s="2" t="n">
         <v>4</v>
@@ -31435,7 +31441,7 @@
         <v>115</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C222" s="2" t="n">
         <v>4</v>
@@ -31452,7 +31458,7 @@
         <v>116</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C223" s="2" t="n">
         <v>4</v>
@@ -31467,7 +31473,7 @@
         <v>117</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C224" s="2" t="n">
         <v>4</v>
@@ -31484,7 +31490,7 @@
         <v>118</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C225" s="2" t="n">
         <v>4</v>
@@ -31501,7 +31507,7 @@
         <v>119</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C226" s="2" t="n">
         <v>4</v>
@@ -31518,7 +31524,7 @@
         <v>120</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C227" s="2" t="n">
         <v>4</v>
@@ -31535,7 +31541,7 @@
         <v>121</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C228" s="2" t="n">
         <v>4</v>
@@ -31552,7 +31558,7 @@
         <v>122</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C229" s="2" t="n">
         <v>4</v>
@@ -31569,7 +31575,7 @@
         <v>123</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C230" s="2" t="n">
         <v>4</v>
@@ -31586,7 +31592,7 @@
         <v>124</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C231" s="2" t="n">
         <v>4</v>
@@ -31603,7 +31609,7 @@
         <v>125</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C232" s="2" t="n">
         <v>4</v>
@@ -31620,7 +31626,7 @@
         <v>126</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C233" s="2" t="n">
         <v>4</v>
@@ -31637,7 +31643,7 @@
         <v>127</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C234" s="2" t="n">
         <v>4</v>
@@ -31654,7 +31660,7 @@
         <v>128</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C235" s="2" t="n">
         <v>4</v>
@@ -31671,7 +31677,7 @@
         <v>130</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C236" s="2" t="n">
         <v>4</v>
@@ -31688,7 +31694,7 @@
         <v>132</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C237" s="2" t="n">
         <v>4</v>
@@ -31705,7 +31711,7 @@
         <v>133</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C238" s="2" t="n">
         <v>4</v>
@@ -31722,7 +31728,7 @@
         <v>134</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C239" s="2" t="n">
         <v>4</v>
@@ -31739,7 +31745,7 @@
         <v>135</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C240" s="2" t="n">
         <v>4</v>
@@ -31756,7 +31762,7 @@
         <v>136</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C241" s="2" t="n">
         <v>4</v>
@@ -31771,7 +31777,7 @@
         <v>137</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C242" s="2" t="n">
         <v>4</v>
@@ -31788,7 +31794,7 @@
         <v>138</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C243" s="2" t="n">
         <v>4</v>
@@ -31805,7 +31811,7 @@
         <v>139</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C244" s="2" t="n">
         <v>4</v>
@@ -31822,7 +31828,7 @@
         <v>140</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C245" s="2" t="n">
         <v>4</v>
@@ -31839,7 +31845,7 @@
         <v>141</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C246" s="2" t="n">
         <v>4</v>
@@ -31856,7 +31862,7 @@
         <v>142</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C247" s="2" t="n">
         <v>4</v>
@@ -31873,7 +31879,7 @@
         <v>143</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C248" s="2" t="n">
         <v>4</v>
@@ -31890,7 +31896,7 @@
         <v>144</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C249" s="2" t="n">
         <v>4</v>
@@ -31907,7 +31913,7 @@
         <v>110</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C250" s="2" t="n">
         <v>2</v>
@@ -31924,7 +31930,7 @@
         <v>112</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C251" s="2" t="n">
         <v>2</v>
@@ -31941,7 +31947,7 @@
         <v>113</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C252" s="2" t="n">
         <v>2</v>
@@ -31958,7 +31964,7 @@
         <v>115</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C253" s="2" t="n">
         <v>2</v>
@@ -31975,7 +31981,7 @@
         <v>116</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C254" s="2" t="n">
         <v>2</v>
@@ -31990,7 +31996,7 @@
         <v>117</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C255" s="2" t="n">
         <v>2</v>
@@ -32007,7 +32013,7 @@
         <v>118</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C256" s="2" t="n">
         <v>2</v>
@@ -32024,7 +32030,7 @@
         <v>119</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C257" s="2" t="n">
         <v>2</v>
@@ -32041,7 +32047,7 @@
         <v>120</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C258" s="2" t="n">
         <v>2</v>
@@ -32058,7 +32064,7 @@
         <v>121</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C259" s="2" t="n">
         <v>2</v>
@@ -32075,7 +32081,7 @@
         <v>122</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C260" s="2" t="n">
         <v>2</v>
@@ -32092,7 +32098,7 @@
         <v>123</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C261" s="2" t="n">
         <v>2</v>
@@ -32109,7 +32115,7 @@
         <v>124</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C262" s="2" t="n">
         <v>2</v>
@@ -32126,7 +32132,7 @@
         <v>125</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C263" s="2" t="n">
         <v>2</v>
@@ -32143,7 +32149,7 @@
         <v>126</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C264" s="2" t="n">
         <v>2</v>
@@ -32160,7 +32166,7 @@
         <v>127</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C265" s="2" t="n">
         <v>2</v>
@@ -32177,7 +32183,7 @@
         <v>128</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C266" s="2" t="n">
         <v>2</v>
@@ -32194,7 +32200,7 @@
         <v>130</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C267" s="2" t="n">
         <v>2</v>
@@ -32211,7 +32217,7 @@
         <v>132</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C268" s="2" t="n">
         <v>2</v>
@@ -32228,7 +32234,7 @@
         <v>133</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C269" s="2" t="n">
         <v>2</v>
@@ -32245,7 +32251,7 @@
         <v>134</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C270" s="2" t="n">
         <v>2</v>
@@ -32262,7 +32268,7 @@
         <v>135</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C271" s="2" t="n">
         <v>2</v>
@@ -32279,7 +32285,7 @@
         <v>136</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C272" s="2" t="n">
         <v>2</v>
@@ -32296,7 +32302,7 @@
         <v>137</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C273" s="2" t="n">
         <v>2</v>
@@ -32311,7 +32317,7 @@
         <v>138</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C274" s="2" t="n">
         <v>2</v>
@@ -32328,7 +32334,7 @@
         <v>139</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C275" s="2" t="n">
         <v>2</v>
@@ -32345,7 +32351,7 @@
         <v>140</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C276" s="2" t="n">
         <v>2</v>
@@ -32362,7 +32368,7 @@
         <v>141</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C277" s="2" t="n">
         <v>2</v>
@@ -32379,7 +32385,7 @@
         <v>142</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C278" s="2" t="n">
         <v>2</v>
@@ -32396,7 +32402,7 @@
         <v>143</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C279" s="2" t="n">
         <v>2</v>
@@ -32413,7 +32419,7 @@
         <v>144</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C280" s="2" t="n">
         <v>2</v>
@@ -32430,7 +32436,7 @@
         <v>110</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C281" s="2" t="n">
         <v>4</v>
@@ -32447,7 +32453,7 @@
         <v>112</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C282" s="2" t="n">
         <v>4</v>
@@ -32464,7 +32470,7 @@
         <v>113</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C283" s="2" t="n">
         <v>4</v>
@@ -32481,7 +32487,7 @@
         <v>115</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C284" s="2" t="n">
         <v>4</v>
@@ -32498,7 +32504,7 @@
         <v>116</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C285" s="2" t="n">
         <v>4</v>
@@ -32513,7 +32519,7 @@
         <v>117</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C286" s="2" t="n">
         <v>4</v>
@@ -32530,7 +32536,7 @@
         <v>118</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C287" s="2" t="n">
         <v>4</v>
@@ -32547,7 +32553,7 @@
         <v>119</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C288" s="2" t="n">
         <v>4</v>
@@ -32564,7 +32570,7 @@
         <v>120</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C289" s="2" t="n">
         <v>4</v>
@@ -32581,7 +32587,7 @@
         <v>121</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C290" s="2" t="n">
         <v>4</v>
@@ -32598,7 +32604,7 @@
         <v>122</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C291" s="2" t="n">
         <v>4</v>
@@ -32615,7 +32621,7 @@
         <v>123</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C292" s="2" t="n">
         <v>4</v>
@@ -32632,7 +32638,7 @@
         <v>124</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C293" s="2" t="n">
         <v>4</v>
@@ -32649,7 +32655,7 @@
         <v>125</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C294" s="2" t="n">
         <v>4</v>
@@ -32666,7 +32672,7 @@
         <v>126</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C295" s="2" t="n">
         <v>4</v>
@@ -32683,7 +32689,7 @@
         <v>127</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C296" s="2" t="n">
         <v>4</v>
@@ -32700,7 +32706,7 @@
         <v>128</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C297" s="2" t="n">
         <v>4</v>
@@ -32717,7 +32723,7 @@
         <v>130</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C298" s="2" t="n">
         <v>4</v>
@@ -32734,7 +32740,7 @@
         <v>132</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C299" s="2" t="n">
         <v>4</v>
@@ -32751,7 +32757,7 @@
         <v>133</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C300" s="2" t="n">
         <v>4</v>
@@ -32768,7 +32774,7 @@
         <v>134</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C301" s="2" t="n">
         <v>4</v>
@@ -32785,7 +32791,7 @@
         <v>135</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C302" s="2" t="n">
         <v>4</v>
@@ -32802,7 +32808,7 @@
         <v>136</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C303" s="2" t="n">
         <v>4</v>
@@ -32817,7 +32823,7 @@
         <v>137</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C304" s="2" t="n">
         <v>4</v>
@@ -32834,7 +32840,7 @@
         <v>138</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C305" s="2" t="n">
         <v>4</v>
@@ -32851,7 +32857,7 @@
         <v>139</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C306" s="2" t="n">
         <v>4</v>
@@ -32868,7 +32874,7 @@
         <v>140</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C307" s="2" t="n">
         <v>4</v>
@@ -32885,7 +32891,7 @@
         <v>141</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C308" s="2" t="n">
         <v>4</v>
@@ -32902,7 +32908,7 @@
         <v>142</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C309" s="2" t="n">
         <v>4</v>
@@ -32919,7 +32925,7 @@
         <v>143</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C310" s="2" t="n">
         <v>4</v>
@@ -32936,7 +32942,7 @@
         <v>144</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C311" s="2" t="n">
         <v>4</v>
@@ -32953,7 +32959,7 @@
         <v>110</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C312" s="2" t="n">
         <v>2</v>
@@ -32970,7 +32976,7 @@
         <v>112</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C313" s="2" t="n">
         <v>2</v>
@@ -32987,7 +32993,7 @@
         <v>113</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C314" s="2" t="n">
         <v>2</v>
@@ -33004,7 +33010,7 @@
         <v>115</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C315" s="2" t="n">
         <v>2</v>
@@ -33021,7 +33027,7 @@
         <v>116</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C316" s="2" t="n">
         <v>2</v>
@@ -33036,7 +33042,7 @@
         <v>117</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C317" s="2" t="n">
         <v>2</v>
@@ -33053,7 +33059,7 @@
         <v>118</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C318" s="2" t="n">
         <v>2</v>
@@ -33070,7 +33076,7 @@
         <v>119</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C319" s="2" t="n">
         <v>2</v>
@@ -33087,7 +33093,7 @@
         <v>120</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C320" s="2" t="n">
         <v>2</v>
@@ -33104,7 +33110,7 @@
         <v>121</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C321" s="2" t="n">
         <v>2</v>
@@ -33121,7 +33127,7 @@
         <v>122</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C322" s="2" t="n">
         <v>2</v>
@@ -33138,7 +33144,7 @@
         <v>123</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C323" s="2" t="n">
         <v>2</v>
@@ -33155,7 +33161,7 @@
         <v>124</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C324" s="2" t="n">
         <v>2</v>
@@ -33172,7 +33178,7 @@
         <v>125</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C325" s="2" t="n">
         <v>2</v>
@@ -33189,7 +33195,7 @@
         <v>126</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C326" s="2" t="n">
         <v>2</v>
@@ -33206,7 +33212,7 @@
         <v>127</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C327" s="2" t="n">
         <v>2</v>
@@ -33223,7 +33229,7 @@
         <v>128</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C328" s="2" t="n">
         <v>2</v>
@@ -33238,7 +33244,7 @@
         <v>130</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C329" s="2" t="n">
         <v>2</v>
@@ -33255,7 +33261,7 @@
         <v>132</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C330" s="2" t="n">
         <v>2</v>
@@ -33272,7 +33278,7 @@
         <v>133</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C331" s="2" t="n">
         <v>2</v>
@@ -33289,7 +33295,7 @@
         <v>134</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C332" s="2" t="n">
         <v>2</v>
@@ -33306,7 +33312,7 @@
         <v>135</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C333" s="2" t="n">
         <v>2</v>
@@ -33323,7 +33329,7 @@
         <v>136</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C334" s="2" t="n">
         <v>2</v>
@@ -33340,7 +33346,7 @@
         <v>137</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C335" s="2" t="n">
         <v>2</v>
@@ -33357,7 +33363,7 @@
         <v>138</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C336" s="2" t="n">
         <v>2</v>
@@ -33374,7 +33380,7 @@
         <v>139</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C337" s="2" t="n">
         <v>2</v>
@@ -33391,7 +33397,7 @@
         <v>140</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C338" s="2" t="n">
         <v>2</v>
@@ -33408,7 +33414,7 @@
         <v>141</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C339" s="2" t="n">
         <v>2</v>
@@ -33425,7 +33431,7 @@
         <v>142</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C340" s="2" t="n">
         <v>2</v>
@@ -33442,7 +33448,7 @@
         <v>143</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C341" s="2" t="n">
         <v>2</v>
@@ -33459,7 +33465,7 @@
         <v>144</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C342" s="2" t="n">
         <v>2</v>
@@ -33476,7 +33482,7 @@
         <v>110</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C343" s="2" t="n">
         <v>4</v>
@@ -33493,7 +33499,7 @@
         <v>112</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C344" s="2" t="n">
         <v>4</v>
@@ -33510,7 +33516,7 @@
         <v>113</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C345" s="2" t="n">
         <v>4</v>
@@ -33527,7 +33533,7 @@
         <v>115</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C346" s="2" t="n">
         <v>4</v>
@@ -33544,7 +33550,7 @@
         <v>116</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C347" s="2" t="n">
         <v>4</v>
@@ -33559,7 +33565,7 @@
         <v>117</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C348" s="2" t="n">
         <v>4</v>
@@ -33576,7 +33582,7 @@
         <v>118</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C349" s="2" t="n">
         <v>4</v>
@@ -33593,7 +33599,7 @@
         <v>119</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C350" s="2" t="n">
         <v>4</v>
@@ -33610,7 +33616,7 @@
         <v>120</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C351" s="2" t="n">
         <v>4</v>
@@ -33627,7 +33633,7 @@
         <v>121</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C352" s="2" t="n">
         <v>4</v>
@@ -33644,7 +33650,7 @@
         <v>122</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C353" s="2" t="n">
         <v>4</v>
@@ -33661,7 +33667,7 @@
         <v>123</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C354" s="2" t="n">
         <v>4</v>
@@ -33678,7 +33684,7 @@
         <v>124</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C355" s="2" t="n">
         <v>4</v>
@@ -33695,7 +33701,7 @@
         <v>125</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C356" s="2" t="n">
         <v>4</v>
@@ -33712,7 +33718,7 @@
         <v>126</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C357" s="2" t="n">
         <v>4</v>
@@ -33729,7 +33735,7 @@
         <v>127</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C358" s="2" t="n">
         <v>4</v>
@@ -33746,7 +33752,7 @@
         <v>128</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C359" s="2" t="n">
         <v>4</v>
@@ -33761,7 +33767,7 @@
         <v>130</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C360" s="2" t="n">
         <v>4</v>
@@ -33778,7 +33784,7 @@
         <v>132</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C361" s="2" t="n">
         <v>4</v>
@@ -33795,7 +33801,7 @@
         <v>133</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C362" s="2" t="n">
         <v>4</v>
@@ -33812,7 +33818,7 @@
         <v>134</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C363" s="2" t="n">
         <v>4</v>
@@ -33829,7 +33835,7 @@
         <v>135</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C364" s="2" t="n">
         <v>4</v>
@@ -33846,7 +33852,7 @@
         <v>136</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C365" s="2" t="n">
         <v>4</v>
@@ -33861,7 +33867,7 @@
         <v>137</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C366" s="2" t="n">
         <v>4</v>
@@ -33878,7 +33884,7 @@
         <v>138</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C367" s="2" t="n">
         <v>4</v>
@@ -33895,7 +33901,7 @@
         <v>139</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C368" s="2" t="n">
         <v>4</v>
@@ -33912,7 +33918,7 @@
         <v>140</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C369" s="2" t="n">
         <v>4</v>
@@ -33929,7 +33935,7 @@
         <v>141</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C370" s="2" t="n">
         <v>4</v>
@@ -33946,7 +33952,7 @@
         <v>142</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C371" s="2" t="n">
         <v>4</v>
@@ -33963,7 +33969,7 @@
         <v>143</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C372" s="2" t="n">
         <v>4</v>
@@ -33980,7 +33986,7 @@
         <v>144</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C373" s="2" t="n">
         <v>4</v>
@@ -33997,7 +34003,7 @@
         <v>110</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C374" s="2" t="n">
         <v>2</v>
@@ -34014,7 +34020,7 @@
         <v>112</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C375" s="2" t="n">
         <v>2</v>
@@ -34031,7 +34037,7 @@
         <v>113</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C376" s="2" t="n">
         <v>2</v>
@@ -34048,7 +34054,7 @@
         <v>115</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C377" s="2" t="n">
         <v>2</v>
@@ -34065,7 +34071,7 @@
         <v>116</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C378" s="2" t="n">
         <v>2</v>
@@ -34080,7 +34086,7 @@
         <v>117</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C379" s="2" t="n">
         <v>2</v>
@@ -34097,7 +34103,7 @@
         <v>118</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C380" s="2" t="n">
         <v>2</v>
@@ -34114,7 +34120,7 @@
         <v>119</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C381" s="2" t="n">
         <v>2</v>
@@ -34131,7 +34137,7 @@
         <v>120</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C382" s="2" t="n">
         <v>2</v>
@@ -34148,7 +34154,7 @@
         <v>121</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C383" s="2" t="n">
         <v>2</v>
@@ -34165,7 +34171,7 @@
         <v>122</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C384" s="2" t="n">
         <v>2</v>
@@ -34182,7 +34188,7 @@
         <v>123</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C385" s="2" t="n">
         <v>2</v>
@@ -34199,7 +34205,7 @@
         <v>124</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C386" s="2" t="n">
         <v>2</v>
@@ -34216,7 +34222,7 @@
         <v>125</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C387" s="2" t="n">
         <v>2</v>
@@ -34233,7 +34239,7 @@
         <v>126</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C388" s="2" t="n">
         <v>2</v>
@@ -34250,7 +34256,7 @@
         <v>127</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C389" s="2" t="n">
         <v>2</v>
@@ -34267,7 +34273,7 @@
         <v>128</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C390" s="2" t="n">
         <v>2</v>
@@ -34284,7 +34290,7 @@
         <v>130</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C391" s="2" t="n">
         <v>2</v>
@@ -34301,7 +34307,7 @@
         <v>132</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C392" s="2" t="n">
         <v>2</v>
@@ -34318,7 +34324,7 @@
         <v>133</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C393" s="2" t="n">
         <v>2</v>
@@ -34335,7 +34341,7 @@
         <v>134</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C394" s="2" t="n">
         <v>2</v>
@@ -34352,7 +34358,7 @@
         <v>135</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C395" s="2" t="n">
         <v>2</v>
@@ -34369,7 +34375,7 @@
         <v>136</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C396" s="2" t="n">
         <v>2</v>
@@ -34386,7 +34392,7 @@
         <v>137</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C397" s="2" t="n">
         <v>2</v>
@@ -34401,7 +34407,7 @@
         <v>138</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C398" s="2" t="n">
         <v>2</v>
@@ -34418,7 +34424,7 @@
         <v>139</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C399" s="2" t="n">
         <v>2</v>
@@ -34435,7 +34441,7 @@
         <v>140</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C400" s="2" t="n">
         <v>2</v>
@@ -34452,7 +34458,7 @@
         <v>141</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C401" s="2" t="n">
         <v>2</v>
@@ -34469,7 +34475,7 @@
         <v>142</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C402" s="2" t="n">
         <v>2</v>
@@ -34486,7 +34492,7 @@
         <v>143</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C403" s="2" t="n">
         <v>2</v>
@@ -34503,7 +34509,7 @@
         <v>144</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C404" s="2" t="n">
         <v>2</v>
@@ -34520,7 +34526,7 @@
         <v>110</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C405" s="2" t="n">
         <v>4</v>
@@ -34537,7 +34543,7 @@
         <v>112</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C406" s="2" t="n">
         <v>4</v>
@@ -34554,7 +34560,7 @@
         <v>113</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C407" s="2" t="n">
         <v>4</v>
@@ -34571,7 +34577,7 @@
         <v>115</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C408" s="2" t="n">
         <v>4</v>
@@ -34588,7 +34594,7 @@
         <v>116</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C409" s="2" t="n">
         <v>4</v>
@@ -34603,7 +34609,7 @@
         <v>117</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C410" s="2" t="n">
         <v>4</v>
@@ -34620,7 +34626,7 @@
         <v>118</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C411" s="2" t="n">
         <v>4</v>
@@ -34637,7 +34643,7 @@
         <v>119</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C412" s="2" t="n">
         <v>4</v>
@@ -34654,7 +34660,7 @@
         <v>120</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C413" s="2" t="n">
         <v>4</v>
@@ -34671,7 +34677,7 @@
         <v>121</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C414" s="2" t="n">
         <v>4</v>
@@ -34688,7 +34694,7 @@
         <v>122</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C415" s="2" t="n">
         <v>4</v>
@@ -34705,7 +34711,7 @@
         <v>123</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C416" s="2" t="n">
         <v>4</v>
@@ -34722,7 +34728,7 @@
         <v>124</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C417" s="2" t="n">
         <v>4</v>
@@ -34739,7 +34745,7 @@
         <v>125</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C418" s="2" t="n">
         <v>4</v>
@@ -34756,7 +34762,7 @@
         <v>126</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C419" s="2" t="n">
         <v>4</v>
@@ -34773,7 +34779,7 @@
         <v>127</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C420" s="2" t="n">
         <v>4</v>
@@ -34790,7 +34796,7 @@
         <v>128</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C421" s="2" t="n">
         <v>4</v>
@@ -34807,7 +34813,7 @@
         <v>130</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C422" s="2" t="n">
         <v>4</v>
@@ -34824,7 +34830,7 @@
         <v>132</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C423" s="2" t="n">
         <v>4</v>
@@ -34841,7 +34847,7 @@
         <v>133</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C424" s="2" t="n">
         <v>4</v>
@@ -34858,7 +34864,7 @@
         <v>134</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C425" s="2" t="n">
         <v>4</v>
@@ -34875,7 +34881,7 @@
         <v>135</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C426" s="2" t="n">
         <v>4</v>
@@ -34892,7 +34898,7 @@
         <v>136</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C427" s="2" t="n">
         <v>4</v>
@@ -34907,7 +34913,7 @@
         <v>137</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C428" s="2" t="n">
         <v>4</v>
@@ -34924,7 +34930,7 @@
         <v>138</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C429" s="2" t="n">
         <v>4</v>
@@ -34941,7 +34947,7 @@
         <v>139</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C430" s="2" t="n">
         <v>4</v>
@@ -34958,7 +34964,7 @@
         <v>140</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C431" s="2" t="n">
         <v>4</v>
@@ -34975,7 +34981,7 @@
         <v>141</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C432" s="2" t="n">
         <v>4</v>
@@ -34992,7 +34998,7 @@
         <v>142</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C433" s="2" t="n">
         <v>4</v>
@@ -35009,7 +35015,7 @@
         <v>143</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C434" s="2" t="n">
         <v>4</v>
@@ -35026,7 +35032,7 @@
         <v>144</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C435" s="2" t="n">
         <v>4</v>
@@ -35043,7 +35049,7 @@
         <v>110</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C436" s="2" t="n">
         <v>2</v>
@@ -35060,7 +35066,7 @@
         <v>112</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C437" s="2" t="n">
         <v>2</v>
@@ -35077,7 +35083,7 @@
         <v>113</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C438" s="2" t="n">
         <v>2</v>
@@ -35094,7 +35100,7 @@
         <v>115</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C439" s="2" t="n">
         <v>2</v>
@@ -35111,7 +35117,7 @@
         <v>116</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C440" s="2" t="n">
         <v>2</v>
@@ -35126,7 +35132,7 @@
         <v>117</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C441" s="2" t="n">
         <v>2</v>
@@ -35143,7 +35149,7 @@
         <v>118</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C442" s="2" t="n">
         <v>2</v>
@@ -35160,7 +35166,7 @@
         <v>119</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C443" s="2" t="n">
         <v>2</v>
@@ -35177,7 +35183,7 @@
         <v>120</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C444" s="2" t="n">
         <v>2</v>
@@ -35194,7 +35200,7 @@
         <v>121</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C445" s="2" t="n">
         <v>2</v>
@@ -35211,7 +35217,7 @@
         <v>122</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C446" s="2" t="n">
         <v>2</v>
@@ -35228,7 +35234,7 @@
         <v>123</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C447" s="2" t="n">
         <v>2</v>
@@ -35245,7 +35251,7 @@
         <v>124</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C448" s="2" t="n">
         <v>2</v>
@@ -35262,7 +35268,7 @@
         <v>125</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C449" s="2" t="n">
         <v>2</v>
@@ -35279,7 +35285,7 @@
         <v>126</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C450" s="2" t="n">
         <v>2</v>
@@ -35296,7 +35302,7 @@
         <v>127</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C451" s="2" t="n">
         <v>2</v>
@@ -35313,7 +35319,7 @@
         <v>128</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C452" s="2" t="n">
         <v>2</v>
@@ -35330,7 +35336,7 @@
         <v>130</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C453" s="2" t="n">
         <v>2</v>
@@ -35347,7 +35353,7 @@
         <v>132</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C454" s="2" t="n">
         <v>2</v>
@@ -35364,7 +35370,7 @@
         <v>133</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C455" s="2" t="n">
         <v>2</v>
@@ -35381,7 +35387,7 @@
         <v>134</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C456" s="2" t="n">
         <v>2</v>
@@ -35398,7 +35404,7 @@
         <v>135</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C457" s="2" t="n">
         <v>2</v>
@@ -35415,7 +35421,7 @@
         <v>136</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C458" s="2" t="n">
         <v>2</v>
@@ -35430,7 +35436,7 @@
         <v>137</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C459" s="2" t="n">
         <v>2</v>
@@ -35447,7 +35453,7 @@
         <v>138</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C460" s="2" t="n">
         <v>2</v>
@@ -35464,7 +35470,7 @@
         <v>139</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C461" s="2" t="n">
         <v>2</v>
@@ -35481,7 +35487,7 @@
         <v>140</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C462" s="2" t="n">
         <v>2</v>
@@ -35498,7 +35504,7 @@
         <v>141</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C463" s="2" t="n">
         <v>2</v>
@@ -35515,7 +35521,7 @@
         <v>142</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C464" s="2" t="n">
         <v>2</v>
@@ -35532,7 +35538,7 @@
         <v>143</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C465" s="2" t="n">
         <v>2</v>
@@ -35549,7 +35555,7 @@
         <v>144</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C466" s="2" t="n">
         <v>2</v>
@@ -35566,7 +35572,7 @@
         <v>110</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C467" s="2" t="n">
         <v>4</v>
@@ -35583,7 +35589,7 @@
         <v>112</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C468" s="2" t="n">
         <v>4</v>
@@ -35600,7 +35606,7 @@
         <v>113</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C469" s="2" t="n">
         <v>4</v>
@@ -35617,7 +35623,7 @@
         <v>115</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C470" s="2" t="n">
         <v>4</v>
@@ -35634,7 +35640,7 @@
         <v>116</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C471" s="2" t="n">
         <v>4</v>
@@ -35649,7 +35655,7 @@
         <v>117</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C472" s="2" t="n">
         <v>4</v>
@@ -35666,7 +35672,7 @@
         <v>118</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C473" s="2" t="n">
         <v>4</v>
@@ -35683,7 +35689,7 @@
         <v>119</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C474" s="2" t="n">
         <v>4</v>
@@ -35700,7 +35706,7 @@
         <v>120</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C475" s="2" t="n">
         <v>4</v>
@@ -35717,7 +35723,7 @@
         <v>121</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C476" s="2" t="n">
         <v>4</v>
@@ -35734,7 +35740,7 @@
         <v>122</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C477" s="2" t="n">
         <v>4</v>
@@ -35751,7 +35757,7 @@
         <v>123</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C478" s="2" t="n">
         <v>4</v>
@@ -35768,7 +35774,7 @@
         <v>124</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C479" s="2" t="n">
         <v>4</v>
@@ -35785,7 +35791,7 @@
         <v>125</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C480" s="2" t="n">
         <v>4</v>
@@ -35802,7 +35808,7 @@
         <v>126</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C481" s="2" t="n">
         <v>4</v>
@@ -35819,7 +35825,7 @@
         <v>127</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C482" s="2" t="n">
         <v>4</v>
@@ -35836,7 +35842,7 @@
         <v>128</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C483" s="2" t="n">
         <v>4</v>
@@ -35853,7 +35859,7 @@
         <v>130</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C484" s="2" t="n">
         <v>4</v>
@@ -35870,7 +35876,7 @@
         <v>132</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C485" s="2" t="n">
         <v>4</v>
@@ -35887,7 +35893,7 @@
         <v>133</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C486" s="2" t="n">
         <v>4</v>
@@ -35904,7 +35910,7 @@
         <v>134</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C487" s="2" t="n">
         <v>4</v>
@@ -35921,7 +35927,7 @@
         <v>135</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C488" s="2" t="n">
         <v>4</v>
@@ -35938,7 +35944,7 @@
         <v>136</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C489" s="2" t="n">
         <v>4</v>
@@ -35953,7 +35959,7 @@
         <v>137</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C490" s="2" t="n">
         <v>4</v>
@@ -35970,7 +35976,7 @@
         <v>138</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C491" s="2" t="n">
         <v>4</v>
@@ -35987,7 +35993,7 @@
         <v>139</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C492" s="2" t="n">
         <v>4</v>
@@ -36004,7 +36010,7 @@
         <v>140</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C493" s="2" t="n">
         <v>4</v>
@@ -36021,7 +36027,7 @@
         <v>141</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C494" s="2" t="n">
         <v>4</v>
@@ -36038,7 +36044,7 @@
         <v>142</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C495" s="2" t="n">
         <v>4</v>
@@ -36055,7 +36061,7 @@
         <v>143</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C496" s="2" t="n">
         <v>4</v>
@@ -36072,7 +36078,7 @@
         <v>144</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C497" s="2" t="n">
         <v>4</v>
